--- a/詳細設計作成‗劉.xlsx
+++ b/詳細設計作成‗劉.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\work\projects\back-office-source-develop-koshidaka\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8194AA7-01C0-46C6-A82E-3EAE4ED39A5F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B1AB741-DA26-4298-AD26-E16B3912C488}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -856,14 +856,14 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2026,7 +2026,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G26" sqref="G26"/>
+      <selection pane="bottomLeft" activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="15.75"/>
@@ -2037,8 +2037,8 @@
     <col min="4" max="4" width="21.5" style="2" customWidth="1"/>
     <col min="5" max="5" width="31.5" style="2" customWidth="1"/>
     <col min="6" max="6" width="22.875" style="2" customWidth="1"/>
-    <col min="7" max="7" width="43.25" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="31.75" style="2" customWidth="1"/>
+    <col min="7" max="7" width="38.5" style="2" customWidth="1"/>
+    <col min="8" max="8" width="43.875" style="2" customWidth="1"/>
     <col min="9" max="9" width="40.75" style="2" customWidth="1"/>
     <col min="10" max="10" width="36.75" style="2" customWidth="1"/>
     <col min="11" max="11" width="23.375" style="2" customWidth="1"/>
@@ -2047,52 +2047,52 @@
   <sheetData>
     <row r="1" spans="2:11" ht="15" customHeight="1"/>
     <row r="2" spans="2:11" s="1" customFormat="1" ht="18" customHeight="1">
-      <c r="B2" s="19" t="s">
+      <c r="B2" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="19" t="s">
+      <c r="C2" s="20" t="s">
         <v>103</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="E2" s="19" t="s">
+      <c r="E2" s="20" t="s">
         <v>105</v>
       </c>
-      <c r="F2" s="19" t="s">
+      <c r="F2" s="20" t="s">
         <v>106</v>
       </c>
-      <c r="G2" s="19" t="s">
+      <c r="G2" s="20" t="s">
         <v>107</v>
       </c>
       <c r="H2" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="I2" s="19" t="s">
+      <c r="I2" s="20" t="s">
         <v>109</v>
       </c>
-      <c r="J2" s="19" t="s">
+      <c r="J2" s="20" t="s">
         <v>110</v>
       </c>
-      <c r="K2" s="19" t="s">
+      <c r="K2" s="20" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="3" spans="2:11" s="1" customFormat="1">
-      <c r="B3" s="20"/>
-      <c r="C3" s="20"/>
+      <c r="B3" s="21"/>
+      <c r="C3" s="21"/>
       <c r="D3" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="E3" s="20"/>
-      <c r="F3" s="20"/>
-      <c r="G3" s="20"/>
+      <c r="E3" s="21"/>
+      <c r="F3" s="21"/>
+      <c r="G3" s="21"/>
       <c r="H3" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="I3" s="20"/>
-      <c r="J3" s="20"/>
-      <c r="K3" s="20"/>
+      <c r="I3" s="21"/>
+      <c r="J3" s="21"/>
+      <c r="K3" s="21"/>
     </row>
     <row r="4" spans="2:11" ht="141.75" hidden="1">
       <c r="B4" s="5" t="s">
@@ -2164,7 +2164,7 @@
       <c r="D6" s="17" t="s">
         <v>139</v>
       </c>
-      <c r="E6" s="21" t="s">
+      <c r="E6" s="19" t="s">
         <v>165</v>
       </c>
       <c r="F6" s="16" t="s">
@@ -2254,7 +2254,7 @@
       <c r="D9" s="17" t="s">
         <v>148</v>
       </c>
-      <c r="E9" s="21" t="s">
+      <c r="E9" s="19" t="s">
         <v>163</v>
       </c>
       <c r="F9" s="16" t="s">
